--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="42240" yWindow="2360" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$H$5:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
   <si>
     <t>Ref Des</t>
   </si>
@@ -400,6 +403,9 @@
   </si>
   <si>
     <t>N00273</t>
+  </si>
+  <si>
+    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2319,24 +2325,24 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -2418,93 +2424,93 @@
         <v>-124.56486</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2513,38 +2519,33 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="57" customWidth="1"/>
     <col min="6" max="6" width="17" style="53" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2584,7 +2585,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="50">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>7</v>
@@ -2615,7 +2616,7 @@
       <c r="L3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="50">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>8</v>
@@ -2646,7 +2647,7 @@
       <c r="L4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>91</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="50">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>6</v>
@@ -2671,7 +2672,9 @@
       <c r="H5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="36" t="s">
+        <v>113</v>
+      </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
       <c r="L5"/>
@@ -2680,7 +2683,7 @@
       <c r="O5" s="36"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="50">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>62</v>
@@ -2711,7 +2714,7 @@
       <c r="L6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="27"/>
@@ -2724,7 +2727,7 @@
       <c r="L7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
@@ -2755,7 +2758,7 @@
       <c r="L8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>89</v>
       </c>
@@ -2784,7 +2787,7 @@
       <c r="L9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>89</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="L10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>89</v>
       </c>
@@ -2841,7 +2844,7 @@
       <c r="I11" s="30"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>89</v>
       </c>
@@ -2869,7 +2872,7 @@
       <c r="I12" s="30"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>89</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="I13" s="30"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
@@ -2925,7 +2928,7 @@
       <c r="I14" s="30"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>89</v>
       </c>
@@ -2953,7 +2956,7 @@
       <c r="I15" s="30"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="27"/>
@@ -2965,7 +2968,7 @@
       <c r="I16" s="20"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -2995,7 +2998,7 @@
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -3025,7 +3028,7 @@
       </c>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="27"/>
@@ -3037,7 +3040,7 @@
       <c r="I19" s="20"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>93</v>
       </c>
@@ -3097,7 +3100,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>93</v>
       </c>
@@ -3127,7 +3130,7 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>93</v>
       </c>
@@ -3157,7 +3160,7 @@
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>93</v>
       </c>
@@ -3187,7 +3190,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>93</v>
       </c>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>93</v>
       </c>
@@ -3247,7 +3250,7 @@
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="27"/>
@@ -3259,7 +3262,7 @@
       <c r="I27" s="20"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -3287,7 +3290,7 @@
       <c r="I28" s="20"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>94</v>
       </c>
@@ -3315,7 +3318,7 @@
       <c r="I29" s="20"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>94</v>
       </c>
@@ -3343,7 +3346,7 @@
       <c r="I30" s="20"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="27"/>
@@ -3355,7 +3358,7 @@
       <c r="I31" s="20"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
@@ -3385,7 +3388,7 @@
       </c>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>95</v>
       </c>
@@ -3415,7 +3418,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>95</v>
       </c>
@@ -3445,7 +3448,7 @@
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>95</v>
       </c>
@@ -3475,7 +3478,7 @@
       </c>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>95</v>
       </c>
@@ -3505,7 +3508,7 @@
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
@@ -3535,7 +3538,7 @@
       </c>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>95</v>
       </c>
@@ -3565,7 +3568,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>95</v>
       </c>
@@ -3595,7 +3598,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>95</v>
       </c>
@@ -3655,7 +3658,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -3667,7 +3670,7 @@
       <c r="I42" s="20"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
@@ -3697,7 +3700,7 @@
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>96</v>
       </c>
@@ -3727,7 +3730,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="27"/>
@@ -3739,7 +3742,7 @@
       <c r="I45" s="20"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
@@ -3767,7 +3770,7 @@
       <c r="I46" s="20"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>97</v>
       </c>
@@ -3795,7 +3798,7 @@
       <c r="I47" s="20"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>97</v>
       </c>
@@ -3823,7 +3826,7 @@
       <c r="I48" s="20"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3835,7 +3838,7 @@
       <c r="I49" s="32"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>90</v>
       </c>
@@ -3858,22 +3861,22 @@
       <c r="H50" s="35"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="53"/>
     </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="53"/>
     </row>
-    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="53"/>
     </row>
-    <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="53"/>
@@ -3882,11 +3885,6 @@
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3898,9 +3896,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4212,7 +4210,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4628,7 +4626,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4836,7 +4834,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5148,7 +5146,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5252,7 +5250,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5460,7 +5458,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5668,7 +5666,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5772,7 +5770,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5980,7 +5978,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6188,7 +6186,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6396,7 +6394,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6604,7 +6602,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -7020,7 +7018,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7124,7 +7122,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7228,7 +7226,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7332,7 +7330,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7748,7 +7746,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7956,7 +7954,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -8060,7 +8058,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8268,7 +8266,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8372,7 +8370,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8476,7 +8474,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8580,7 +8578,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8684,7 +8682,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8788,7 +8786,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8892,7 +8890,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8996,7 +8994,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9100,7 +9098,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9204,7 +9202,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9308,7 +9306,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9412,7 +9410,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9516,7 +9514,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9828,7 +9826,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9932,7 +9930,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -10036,7 +10034,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10140,7 +10138,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10244,7 +10242,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10348,7 +10346,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10452,7 +10450,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10556,7 +10554,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10660,7 +10658,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10764,7 +10762,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10868,7 +10866,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10972,7 +10970,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11076,7 +11074,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11180,7 +11178,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11284,7 +11282,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11388,7 +11386,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11492,7 +11490,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11596,7 +11594,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11700,7 +11698,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11804,7 +11802,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11908,7 +11906,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -12012,7 +12010,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12116,7 +12114,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12220,7 +12218,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12428,7 +12426,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12532,7 +12530,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12636,7 +12634,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12740,7 +12738,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12846,11 +12844,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12862,9 +12855,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12968,7 +12961,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13072,7 +13065,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13176,7 +13169,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13280,7 +13273,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13384,7 +13377,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13488,7 +13481,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13592,7 +13585,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13696,7 +13689,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13800,7 +13793,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13904,7 +13897,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -14008,7 +14001,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14112,7 +14105,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14216,7 +14209,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14320,7 +14313,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14424,7 +14417,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14528,7 +14521,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14632,7 +14625,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14736,7 +14729,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14840,7 +14833,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14944,7 +14937,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -15048,7 +15041,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15152,7 +15145,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15256,7 +15249,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15360,7 +15353,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15464,7 +15457,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15568,7 +15561,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15672,7 +15665,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15776,7 +15769,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15880,7 +15873,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15984,7 +15977,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16088,7 +16081,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16192,7 +16185,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16296,7 +16289,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16400,7 +16393,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16504,7 +16497,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16608,7 +16601,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16712,7 +16705,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16816,7 +16809,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16920,7 +16913,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -17024,7 +17017,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17128,7 +17121,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17232,7 +17225,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17336,7 +17329,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17440,7 +17433,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17544,7 +17537,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17648,7 +17641,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17752,7 +17745,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17856,7 +17849,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17960,7 +17953,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -18064,7 +18057,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18168,7 +18161,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18272,7 +18265,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18376,7 +18369,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18480,7 +18473,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18584,7 +18577,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18688,7 +18681,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18792,7 +18785,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18896,7 +18889,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -19000,7 +18993,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19104,7 +19097,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19208,7 +19201,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19312,7 +19305,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19416,7 +19409,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19520,7 +19513,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19624,7 +19617,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19728,7 +19721,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19832,7 +19825,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19936,7 +19929,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -20040,7 +20033,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20144,7 +20137,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20248,7 +20241,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20352,7 +20345,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20456,7 +20449,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20560,7 +20553,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20664,7 +20657,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20768,7 +20761,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20872,7 +20865,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20976,7 +20969,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21080,7 +21073,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21184,7 +21177,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21288,7 +21281,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21392,7 +21385,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21496,7 +21489,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21600,7 +21593,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21704,7 +21697,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21810,10 +21803,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE07SHSP_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="2360" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,11 +26,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!$H$5:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Ref Des</t>
   </si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>N00273</t>
-  </si>
-  <si>
-    <t>corrected cal values: [0.00283856, 0.000119430, 2.41799e-06, 231.190, -0.328248, -55.9998, 4.55859]</t>
   </si>
 </sst>
 </file>
@@ -2325,24 +2319,24 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -2424,93 +2418,93 @@
         <v>-124.56486</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2519,33 +2513,38 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="57" customWidth="1"/>
     <col min="6" max="6" width="17" style="53" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2585,7 +2584,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="50">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>7</v>
@@ -2616,7 +2615,7 @@
       <c r="L3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>91</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="50">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>8</v>
@@ -2647,7 +2646,7 @@
       <c r="L4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>91</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>101</v>
       </c>
       <c r="F5" s="50">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>6</v>
@@ -2672,9 +2671,7 @@
       <c r="H5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>113</v>
-      </c>
+      <c r="I5" s="36"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
       <c r="L5"/>
@@ -2683,7 +2680,7 @@
       <c r="O5" s="36"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="50">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>62</v>
@@ -2714,7 +2711,7 @@
       <c r="L6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="27"/>
@@ -2727,7 +2724,7 @@
       <c r="L7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2755,7 @@
       <c r="L8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>89</v>
       </c>
@@ -2787,7 +2784,7 @@
       <c r="L9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>89</v>
       </c>
@@ -2816,7 +2813,7 @@
       <c r="L10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>89</v>
       </c>
@@ -2844,7 +2841,7 @@
       <c r="I11" s="30"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>89</v>
       </c>
@@ -2872,7 +2869,7 @@
       <c r="I12" s="30"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>89</v>
       </c>
@@ -2900,7 +2897,7 @@
       <c r="I13" s="30"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>89</v>
       </c>
@@ -2928,7 +2925,7 @@
       <c r="I14" s="30"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>89</v>
       </c>
@@ -2956,7 +2953,7 @@
       <c r="I15" s="30"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="27"/>
@@ -2968,7 +2965,7 @@
       <c r="I16" s="20"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -2998,7 +2995,7 @@
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -3028,7 +3025,7 @@
       </c>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="27"/>
@@ -3040,7 +3037,7 @@
       <c r="I19" s="20"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
@@ -3070,7 +3067,7 @@
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>93</v>
       </c>
@@ -3100,7 +3097,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>93</v>
       </c>
@@ -3130,7 +3127,7 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>93</v>
       </c>
@@ -3160,7 +3157,7 @@
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>93</v>
       </c>
@@ -3190,7 +3187,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>93</v>
       </c>
@@ -3220,7 +3217,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>93</v>
       </c>
@@ -3250,7 +3247,7 @@
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="27"/>
@@ -3262,7 +3259,7 @@
       <c r="I27" s="20"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -3290,7 +3287,7 @@
       <c r="I28" s="20"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>94</v>
       </c>
@@ -3318,7 +3315,7 @@
       <c r="I29" s="20"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>94</v>
       </c>
@@ -3346,7 +3343,7 @@
       <c r="I30" s="20"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="27"/>
@@ -3358,7 +3355,7 @@
       <c r="I31" s="20"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
@@ -3388,7 +3385,7 @@
       </c>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>95</v>
       </c>
@@ -3418,7 +3415,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>95</v>
       </c>
@@ -3448,7 +3445,7 @@
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>95</v>
       </c>
@@ -3478,7 +3475,7 @@
       </c>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>95</v>
       </c>
@@ -3508,7 +3505,7 @@
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>95</v>
       </c>
@@ -3538,7 +3535,7 @@
       </c>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>95</v>
       </c>
@@ -3568,7 +3565,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>95</v>
       </c>
@@ -3598,7 +3595,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
@@ -3628,7 +3625,7 @@
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>95</v>
       </c>
@@ -3658,7 +3655,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -3670,7 +3667,7 @@
       <c r="I42" s="20"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
@@ -3700,7 +3697,7 @@
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>96</v>
       </c>
@@ -3730,7 +3727,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="27"/>
@@ -3742,7 +3739,7 @@
       <c r="I45" s="20"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
@@ -3770,7 +3767,7 @@
       <c r="I46" s="20"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>97</v>
       </c>
@@ -3798,7 +3795,7 @@
       <c r="I47" s="20"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>97</v>
       </c>
@@ -3826,7 +3823,7 @@
       <c r="I48" s="20"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3838,7 +3835,7 @@
       <c r="I49" s="32"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>90</v>
       </c>
@@ -3861,22 +3858,22 @@
       <c r="H50" s="35"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="53"/>
     </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="53"/>
     </row>
-    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
       <c r="F53" s="53"/>
     </row>
-    <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
       <c r="F54" s="53"/>
@@ -3885,6 +3882,11 @@
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="3" scale="89" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3896,9 +3898,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5874,7 +5876,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5978,7 +5980,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6290,7 +6292,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7226,7 +7228,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -8058,7 +8060,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8266,7 +8268,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8370,7 +8372,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8890,7 +8892,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9098,7 +9100,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9514,7 +9516,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9930,7 +9932,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10346,7 +10348,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10554,7 +10556,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10762,7 +10764,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10970,7 +10972,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11074,7 +11076,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11178,7 +11180,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11282,7 +11284,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11594,7 +11596,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12114,7 +12116,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12530,7 +12532,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12844,6 +12846,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12855,9 +12862,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12961,7 +12968,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13065,7 +13072,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13169,7 +13176,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13273,7 +13280,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13377,7 +13384,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13481,7 +13488,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13585,7 +13592,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13689,7 +13696,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13793,7 +13800,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13897,7 +13904,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -14001,7 +14008,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14105,7 +14112,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14209,7 +14216,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14313,7 +14320,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14417,7 +14424,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14521,7 +14528,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14625,7 +14632,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14729,7 +14736,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14833,7 +14840,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14937,7 +14944,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -15041,7 +15048,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15145,7 +15152,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15249,7 +15256,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15353,7 +15360,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15457,7 +15464,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15561,7 +15568,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15665,7 +15672,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15769,7 +15776,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15873,7 +15880,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15977,7 +15984,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16081,7 +16088,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16185,7 +16192,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16289,7 +16296,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16393,7 +16400,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16497,7 +16504,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16601,7 +16608,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16705,7 +16712,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16809,7 +16816,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16913,7 +16920,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -17017,7 +17024,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17121,7 +17128,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17225,7 +17232,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17329,7 +17336,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17433,7 +17440,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17537,7 +17544,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17641,7 +17648,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17745,7 +17752,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17849,7 +17856,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17953,7 +17960,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -18057,7 +18064,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18161,7 +18168,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18265,7 +18272,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18369,7 +18376,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18473,7 +18480,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18577,7 +18584,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18681,7 +18688,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18785,7 +18792,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18889,7 +18896,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18993,7 +19000,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19097,7 +19104,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19201,7 +19208,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19305,7 +19312,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19409,7 +19416,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19513,7 +19520,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19617,7 +19624,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19721,7 +19728,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19825,7 +19832,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19929,7 +19936,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -20033,7 +20040,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20137,7 +20144,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20241,7 +20248,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20345,7 +20352,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20449,7 +20456,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20553,7 +20560,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20657,7 +20664,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20761,7 +20768,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20865,7 +20872,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20969,7 +20976,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21073,7 +21080,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21177,7 +21184,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21281,7 +21288,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21385,7 +21392,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21489,7 +21496,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21593,7 +21600,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21697,7 +21704,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>
@@ -21803,5 +21810,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>